--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1831047.930486161</v>
+        <v>1836851.081870616</v>
       </c>
     </row>
     <row r="7">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170387</v>
       </c>
       <c r="C2" t="n">
         <v>819276.3387170383</v>
       </c>
       <c r="D2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170385</v>
       </c>
       <c r="E2" t="n">
-        <v>286416.0877845133</v>
+        <v>286416.0877845131</v>
       </c>
       <c r="F2" t="n">
-        <v>439620.2141160357</v>
+        <v>439620.2141160358</v>
       </c>
       <c r="G2" t="n">
         <v>439620.2141160358</v>
       </c>
       <c r="H2" t="n">
-        <v>439620.214116036</v>
+        <v>439620.2141160358</v>
       </c>
       <c r="I2" t="n">
-        <v>439620.2141160358</v>
+        <v>439620.2141160357</v>
       </c>
       <c r="J2" t="n">
-        <v>430436.614574075</v>
+        <v>430436.6145740752</v>
       </c>
       <c r="K2" t="n">
         <v>537601.1380189578</v>
@@ -26344,13 +26344,13 @@
         <v>537601.1380189578</v>
       </c>
       <c r="M2" t="n">
-        <v>537601.1380189576</v>
+        <v>537601.1380189578</v>
       </c>
       <c r="N2" t="n">
         <v>537601.1380189578</v>
       </c>
       <c r="O2" t="n">
-        <v>482402.7228337083</v>
+        <v>482402.7228337084</v>
       </c>
       <c r="P2" t="n">
         <v>215014.8110628928</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>463844.333129713</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>159705.2460184279</v>
+        <v>159011.6439908248</v>
       </c>
       <c r="F4" t="n">
-        <v>247149.1171696497</v>
+        <v>246455.5151420466</v>
       </c>
       <c r="G4" t="n">
-        <v>247149.1171696497</v>
+        <v>246455.5151420466</v>
       </c>
       <c r="H4" t="n">
-        <v>247149.1171696497</v>
+        <v>246455.5151420466</v>
       </c>
       <c r="I4" t="n">
-        <v>247149.1171696497</v>
+        <v>246455.5151420466</v>
       </c>
       <c r="J4" t="n">
-        <v>241907.4209158952</v>
+        <v>241213.818888292</v>
       </c>
       <c r="K4" t="n">
-        <v>303073.4025671887</v>
+        <v>302379.8005395856</v>
       </c>
       <c r="L4" t="n">
-        <v>303073.4025671887</v>
+        <v>302379.8005395856</v>
       </c>
       <c r="M4" t="n">
-        <v>303073.4025671887</v>
+        <v>302379.8005395856</v>
       </c>
       <c r="N4" t="n">
-        <v>303073.4025671887</v>
+        <v>302379.8005395856</v>
       </c>
       <c r="O4" t="n">
-        <v>271567.9645559057</v>
+        <v>270874.3625283026</v>
       </c>
       <c r="P4" t="n">
-        <v>118951.7481121942</v>
+        <v>118258.146084591</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>321804.4055873256</v>
+        <v>322498.007614929</v>
       </c>
       <c r="C6" t="n">
-        <v>321804.4055873253</v>
+        <v>322498.0076149285</v>
       </c>
       <c r="D6" t="n">
-        <v>321804.4055873254</v>
+        <v>322498.0076149288</v>
       </c>
       <c r="E6" t="n">
-        <v>101114.5908586693</v>
+        <v>101808.1928862722</v>
       </c>
       <c r="F6" t="n">
-        <v>133097.3599994898</v>
+        <v>133790.962027093</v>
       </c>
       <c r="G6" t="n">
-        <v>184622.4840331576</v>
+        <v>185316.0860607607</v>
       </c>
       <c r="H6" t="n">
-        <v>184622.4840331577</v>
+        <v>185316.0860607607</v>
       </c>
       <c r="I6" t="n">
-        <v>184622.4840331576</v>
+        <v>185316.0860607606</v>
       </c>
       <c r="J6" t="n">
-        <v>161021.5258835297</v>
+        <v>161715.1279111332</v>
       </c>
       <c r="K6" t="n">
-        <v>133202.9550393513</v>
+        <v>133896.5570669544</v>
       </c>
       <c r="L6" t="n">
-        <v>222991.3104285485</v>
+        <v>223684.9124561516</v>
       </c>
       <c r="M6" t="n">
-        <v>222991.3104285482</v>
+        <v>223684.9124561516</v>
       </c>
       <c r="N6" t="n">
-        <v>222991.3104285485</v>
+        <v>223684.9124561516</v>
       </c>
       <c r="O6" t="n">
-        <v>201399.2367162846</v>
+        <v>202092.8387438878</v>
       </c>
       <c r="P6" t="n">
-        <v>96063.06295069863</v>
+        <v>96756.66497830181</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1836851.081870616</v>
+        <v>1820153.718229424</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11336604.71754492</v>
+        <v>11739719.61562467</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6011482.603967249</v>
+        <v>5961757.10448502</v>
       </c>
     </row>
     <row r="11">
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>353.7810665888924</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C11" t="n">
-        <v>336.3201166964193</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D11" t="n">
-        <v>325.7302665460948</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E11" t="n">
-        <v>352.9775949976736</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F11" t="n">
-        <v>377.9232706671232</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G11" t="n">
-        <v>386.3499624405468</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H11" t="n">
-        <v>310.5220270411789</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I11" t="n">
-        <v>181.5231144958177</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>120.9163428665615</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S11" t="n">
-        <v>180.0672945116571</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T11" t="n">
-        <v>194.1430744895432</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U11" t="n">
-        <v>222.3928778332483</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V11" t="n">
-        <v>298.7994833955467</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W11" t="n">
-        <v>320.2881936428248</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X11" t="n">
-        <v>340.7783256038808</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y11" t="n">
-        <v>357.2851635814654</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>137.5804085752791</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C12" t="n">
-        <v>143.7557239137275</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D12" t="n">
-        <v>118.4922904900505</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E12" t="n">
-        <v>128.6923053808127</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F12" t="n">
-        <v>116.1164373187957</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G12" t="n">
-        <v>108.3907420886224</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H12" t="n">
-        <v>83.28266916190825</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I12" t="n">
-        <v>60.44385777682686</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>71.20505907805492</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S12" t="n">
-        <v>142.7303960292496</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T12" t="n">
-        <v>171.2119536202334</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U12" t="n">
-        <v>196.9886070063866</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V12" t="n">
-        <v>203.8478120748371</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W12" t="n">
-        <v>222.7422080863314</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X12" t="n">
-        <v>176.8202101288892</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.7299207027161</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="13">
@@ -23413,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.8792051073491</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C13" t="n">
-        <v>138.2940460240396</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D13" t="n">
-        <v>119.6626979436241</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E13" t="n">
-        <v>117.481187571981</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F13" t="n">
-        <v>116.468272948343</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G13" t="n">
-        <v>139.0382042838705</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2743974328513</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I13" t="n">
-        <v>126.4976998526701</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J13" t="n">
-        <v>64.40640504208456</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.20926817710617</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.3406163025813</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S13" t="n">
-        <v>195.0638229623841</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9928143536933</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U13" t="n">
-        <v>257.3662542819027</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V13" t="n">
-        <v>223.1848682492398</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W13" t="n">
-        <v>257.5702232620028</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X13" t="n">
-        <v>196.7568803144489</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.6318782775066</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>289.3746615468078</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C14" t="n">
-        <v>271.9137116543347</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D14" t="n">
-        <v>261.3238615040102</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E14" t="n">
-        <v>288.571189955589</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F14" t="n">
-        <v>313.5168656250387</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G14" t="n">
-        <v>321.9435573984623</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H14" t="n">
-        <v>246.1156219990944</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I14" t="n">
-        <v>117.1167094537331</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.50993782447691</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S14" t="n">
-        <v>115.6608894695726</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T14" t="n">
-        <v>129.7366694474586</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U14" t="n">
-        <v>157.9864727911637</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V14" t="n">
-        <v>234.3930783534621</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W14" t="n">
-        <v>255.8817886007402</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X14" t="n">
-        <v>276.3719205617963</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y14" t="n">
-        <v>292.8787585393808</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.17400353319456</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C15" t="n">
-        <v>79.34931887164296</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D15" t="n">
-        <v>54.08588544796598</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E15" t="n">
-        <v>64.28590033872817</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F15" t="n">
-        <v>51.7100322767111</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G15" t="n">
-        <v>43.98433704653786</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H15" t="n">
-        <v>18.87626411982369</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.798654035970358</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S15" t="n">
-        <v>78.32399098716505</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T15" t="n">
-        <v>106.8055485781488</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U15" t="n">
-        <v>132.582201964302</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V15" t="n">
-        <v>139.4414070327525</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3358030442468</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X15" t="n">
-        <v>112.4138050868047</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y15" t="n">
-        <v>112.3235156606316</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.47280006526452</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C16" t="n">
-        <v>73.88764098195506</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D16" t="n">
-        <v>55.25629290153958</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E16" t="n">
-        <v>53.0747825298964</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F16" t="n">
-        <v>52.06186790625847</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G16" t="n">
-        <v>74.63179924178598</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H16" t="n">
-        <v>68.8679923907668</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I16" t="n">
-        <v>62.09129481058551</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>83.93421126049671</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S16" t="n">
-        <v>130.6574179202995</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T16" t="n">
-        <v>134.5864093116087</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U16" t="n">
-        <v>192.9598492398181</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V16" t="n">
-        <v>158.7784632071552</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W16" t="n">
-        <v>193.1638182199182</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X16" t="n">
-        <v>132.3504752723644</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y16" t="n">
-        <v>125.225473235422</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>289.3746615468078</v>
+        <v>279.7704915039191</v>
       </c>
       <c r="C17" t="n">
-        <v>271.9137116543347</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D17" t="n">
-        <v>261.3238615040102</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E17" t="n">
-        <v>288.571189955589</v>
+        <v>278.9670199127003</v>
       </c>
       <c r="F17" t="n">
-        <v>313.5168656250387</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G17" t="n">
-        <v>321.9435573984623</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H17" t="n">
-        <v>246.1156219990944</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I17" t="n">
-        <v>117.1167094537331</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>56.50993782447691</v>
+        <v>46.90576778158814</v>
       </c>
       <c r="S17" t="n">
-        <v>115.6608894695726</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T17" t="n">
-        <v>129.7366694474586</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U17" t="n">
-        <v>157.9864727911637</v>
+        <v>148.382302748275</v>
       </c>
       <c r="V17" t="n">
-        <v>234.3930783534621</v>
+        <v>224.7889083105734</v>
       </c>
       <c r="W17" t="n">
-        <v>255.8817886007402</v>
+        <v>246.2776185578515</v>
       </c>
       <c r="X17" t="n">
-        <v>276.3719205617963</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.8787585393808</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.17400353319456</v>
+        <v>63.5698334903058</v>
       </c>
       <c r="C18" t="n">
-        <v>79.34931887164296</v>
+        <v>69.7451488287542</v>
       </c>
       <c r="D18" t="n">
-        <v>54.08588544796598</v>
+        <v>44.48171540507721</v>
       </c>
       <c r="E18" t="n">
-        <v>64.28590033872817</v>
+        <v>54.6817302958394</v>
       </c>
       <c r="F18" t="n">
-        <v>51.7100322767111</v>
+        <v>42.10586223382234</v>
       </c>
       <c r="G18" t="n">
-        <v>43.98433704653786</v>
+        <v>34.38016700364909</v>
       </c>
       <c r="H18" t="n">
-        <v>18.87626411982369</v>
+        <v>9.27209407693492</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>78.32399098716505</v>
+        <v>68.71982094427628</v>
       </c>
       <c r="T18" t="n">
-        <v>106.8055485781488</v>
+        <v>97.20137853526006</v>
       </c>
       <c r="U18" t="n">
-        <v>132.582201964302</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V18" t="n">
-        <v>139.4414070327525</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W18" t="n">
-        <v>158.3358030442468</v>
+        <v>148.7316330013581</v>
       </c>
       <c r="X18" t="n">
-        <v>112.4138050868047</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y18" t="n">
-        <v>112.3235156606316</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="19">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.47280006526452</v>
+        <v>76.86863002237575</v>
       </c>
       <c r="C19" t="n">
-        <v>73.88764098195506</v>
+        <v>64.28347093906629</v>
       </c>
       <c r="D19" t="n">
-        <v>55.25629290153958</v>
+        <v>45.65212285865081</v>
       </c>
       <c r="E19" t="n">
-        <v>53.0747825298964</v>
+        <v>43.47061248700763</v>
       </c>
       <c r="F19" t="n">
-        <v>52.06186790625847</v>
+        <v>42.4576978633697</v>
       </c>
       <c r="G19" t="n">
-        <v>74.63179924178598</v>
+        <v>65.02762919889722</v>
       </c>
       <c r="H19" t="n">
-        <v>68.8679923907668</v>
+        <v>59.26382234787803</v>
       </c>
       <c r="I19" t="n">
-        <v>62.09129481058551</v>
+        <v>52.48712476769674</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>83.93421126049671</v>
+        <v>74.33004121760794</v>
       </c>
       <c r="S19" t="n">
-        <v>130.6574179202995</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T19" t="n">
-        <v>134.5864093116087</v>
+        <v>124.98223926872</v>
       </c>
       <c r="U19" t="n">
-        <v>192.9598492398181</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V19" t="n">
-        <v>158.7784632071552</v>
+        <v>149.1742931642665</v>
       </c>
       <c r="W19" t="n">
-        <v>193.1638182199182</v>
+        <v>183.5596481770295</v>
       </c>
       <c r="X19" t="n">
-        <v>132.3504752723644</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.225473235422</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>289.3746615468078</v>
+        <v>279.7704915039191</v>
       </c>
       <c r="C20" t="n">
-        <v>271.9137116543347</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D20" t="n">
-        <v>261.3238615040102</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E20" t="n">
-        <v>288.571189955589</v>
+        <v>278.9670199127003</v>
       </c>
       <c r="F20" t="n">
-        <v>313.5168656250387</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G20" t="n">
-        <v>321.9435573984623</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H20" t="n">
-        <v>246.1156219990944</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I20" t="n">
-        <v>117.1167094537331</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>56.50993782447691</v>
+        <v>46.90576778158814</v>
       </c>
       <c r="S20" t="n">
-        <v>115.6608894695726</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T20" t="n">
-        <v>129.7366694474586</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U20" t="n">
-        <v>157.9864727911637</v>
+        <v>148.382302748275</v>
       </c>
       <c r="V20" t="n">
-        <v>234.3930783534621</v>
+        <v>224.7889083105734</v>
       </c>
       <c r="W20" t="n">
-        <v>255.8817886007402</v>
+        <v>246.2776185578515</v>
       </c>
       <c r="X20" t="n">
-        <v>276.3719205617963</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.8787585393808</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.17400353319456</v>
+        <v>63.5698334903058</v>
       </c>
       <c r="C21" t="n">
-        <v>79.34931887164296</v>
+        <v>69.7451488287542</v>
       </c>
       <c r="D21" t="n">
-        <v>54.08588544796598</v>
+        <v>44.48171540507721</v>
       </c>
       <c r="E21" t="n">
-        <v>64.28590033872817</v>
+        <v>54.6817302958394</v>
       </c>
       <c r="F21" t="n">
-        <v>51.7100322767111</v>
+        <v>42.10586223382234</v>
       </c>
       <c r="G21" t="n">
-        <v>43.98433704653786</v>
+        <v>34.38016700364909</v>
       </c>
       <c r="H21" t="n">
-        <v>18.87626411982369</v>
+        <v>9.27209407693492</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>78.32399098716505</v>
+        <v>68.71982094427628</v>
       </c>
       <c r="T21" t="n">
-        <v>106.8055485781488</v>
+        <v>97.20137853526006</v>
       </c>
       <c r="U21" t="n">
-        <v>132.582201964302</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V21" t="n">
-        <v>139.4414070327525</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W21" t="n">
-        <v>158.3358030442468</v>
+        <v>148.7316330013581</v>
       </c>
       <c r="X21" t="n">
-        <v>112.4138050868047</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y21" t="n">
-        <v>112.3235156606316</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="22">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.47280006526452</v>
+        <v>76.86863002237575</v>
       </c>
       <c r="C22" t="n">
-        <v>73.88764098195506</v>
+        <v>64.28347093906629</v>
       </c>
       <c r="D22" t="n">
-        <v>55.25629290153958</v>
+        <v>45.65212285865081</v>
       </c>
       <c r="E22" t="n">
-        <v>53.0747825298964</v>
+        <v>43.47061248700763</v>
       </c>
       <c r="F22" t="n">
-        <v>52.06186790625847</v>
+        <v>42.4576978633697</v>
       </c>
       <c r="G22" t="n">
-        <v>74.63179924178598</v>
+        <v>65.02762919889722</v>
       </c>
       <c r="H22" t="n">
-        <v>68.8679923907668</v>
+        <v>59.26382234787803</v>
       </c>
       <c r="I22" t="n">
-        <v>62.09129481058551</v>
+        <v>52.48712476769674</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>83.93421126049671</v>
+        <v>74.33004121760794</v>
       </c>
       <c r="S22" t="n">
-        <v>130.6574179202995</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T22" t="n">
-        <v>134.5864093116087</v>
+        <v>124.98223926872</v>
       </c>
       <c r="U22" t="n">
-        <v>192.9598492398181</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V22" t="n">
-        <v>158.7784632071552</v>
+        <v>149.1742931642665</v>
       </c>
       <c r="W22" t="n">
-        <v>193.1638182199182</v>
+        <v>183.5596481770295</v>
       </c>
       <c r="X22" t="n">
-        <v>132.3504752723644</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.225473235422</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>289.3746615468078</v>
+        <v>279.7704915039191</v>
       </c>
       <c r="C23" t="n">
-        <v>271.9137116543347</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D23" t="n">
-        <v>261.3238615040102</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E23" t="n">
-        <v>288.571189955589</v>
+        <v>278.9670199127003</v>
       </c>
       <c r="F23" t="n">
-        <v>313.5168656250387</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G23" t="n">
-        <v>321.9435573984623</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H23" t="n">
-        <v>246.1156219990944</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I23" t="n">
-        <v>117.1167094537331</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>56.50993782447691</v>
+        <v>46.90576778158814</v>
       </c>
       <c r="S23" t="n">
-        <v>115.6608894695726</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T23" t="n">
-        <v>129.7366694474586</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U23" t="n">
-        <v>157.9864727911637</v>
+        <v>148.382302748275</v>
       </c>
       <c r="V23" t="n">
-        <v>234.3930783534621</v>
+        <v>224.7889083105734</v>
       </c>
       <c r="W23" t="n">
-        <v>255.8817886007402</v>
+        <v>246.2776185578515</v>
       </c>
       <c r="X23" t="n">
-        <v>276.3719205617963</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.8787585393808</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.17400353319456</v>
+        <v>63.5698334903058</v>
       </c>
       <c r="C24" t="n">
-        <v>79.34931887164296</v>
+        <v>69.7451488287542</v>
       </c>
       <c r="D24" t="n">
-        <v>54.08588544796598</v>
+        <v>44.48171540507721</v>
       </c>
       <c r="E24" t="n">
-        <v>64.28590033872817</v>
+        <v>54.6817302958394</v>
       </c>
       <c r="F24" t="n">
-        <v>51.7100322767111</v>
+        <v>42.10586223382234</v>
       </c>
       <c r="G24" t="n">
-        <v>43.98433704653786</v>
+        <v>34.38016700364909</v>
       </c>
       <c r="H24" t="n">
-        <v>18.87626411982369</v>
+        <v>9.27209407693492</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>78.32399098716505</v>
+        <v>68.71982094427628</v>
       </c>
       <c r="T24" t="n">
-        <v>106.8055485781488</v>
+        <v>97.20137853526006</v>
       </c>
       <c r="U24" t="n">
-        <v>132.582201964302</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V24" t="n">
-        <v>139.4414070327525</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W24" t="n">
-        <v>158.3358030442468</v>
+        <v>148.7316330013581</v>
       </c>
       <c r="X24" t="n">
-        <v>112.4138050868047</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y24" t="n">
-        <v>112.3235156606316</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="25">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.47280006526452</v>
+        <v>76.86863002237575</v>
       </c>
       <c r="C25" t="n">
-        <v>73.88764098195506</v>
+        <v>64.28347093906629</v>
       </c>
       <c r="D25" t="n">
-        <v>55.25629290153958</v>
+        <v>45.65212285865081</v>
       </c>
       <c r="E25" t="n">
-        <v>53.0747825298964</v>
+        <v>43.47061248700763</v>
       </c>
       <c r="F25" t="n">
-        <v>52.06186790625847</v>
+        <v>42.4576978633697</v>
       </c>
       <c r="G25" t="n">
-        <v>74.63179924178598</v>
+        <v>65.02762919889722</v>
       </c>
       <c r="H25" t="n">
-        <v>68.8679923907668</v>
+        <v>59.26382234787803</v>
       </c>
       <c r="I25" t="n">
-        <v>62.09129481058551</v>
+        <v>52.48712476769674</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>83.93421126049671</v>
+        <v>74.33004121760794</v>
       </c>
       <c r="S25" t="n">
-        <v>130.6574179202995</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T25" t="n">
-        <v>134.5864093116087</v>
+        <v>124.98223926872</v>
       </c>
       <c r="U25" t="n">
-        <v>192.9598492398181</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V25" t="n">
-        <v>158.7784632071552</v>
+        <v>149.1742931642665</v>
       </c>
       <c r="W25" t="n">
-        <v>193.1638182199182</v>
+        <v>183.5596481770295</v>
       </c>
       <c r="X25" t="n">
-        <v>132.3504752723644</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.225473235422</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="26">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>245.5081696176536</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
-        <v>228.0472197251806</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>217.457369574856</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>244.7046980264348</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
-        <v>269.6503736958845</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
-        <v>278.0770654693081</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H29" t="n">
-        <v>202.2491300699402</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I29" t="n">
-        <v>73.25021752457894</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>12.64344589532271</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>71.79439754041837</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>85.87017751830439</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>114.1199808620095</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>190.5265864243079</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
-        <v>212.015296671586</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
-        <v>232.5054286326421</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
-        <v>249.0122666102266</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.30751160404037</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>35.48282694248877</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>10.21939351881178</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>20.41940840957398</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
-        <v>7.84354034755691</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1178451173836663</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>34.45749905801085</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>62.93905664899464</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
-        <v>88.71571003514785</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>95.5749151035983</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>114.4693111150926</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
-        <v>68.54731315765051</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
-        <v>68.45702373147739</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.60630813611033</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
-        <v>30.02114905280087</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>11.38980097238539</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
-        <v>9.208290600742203</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>8.195375977104277</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>30.76530731263179</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>25.00150046161261</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>18.22480288143132</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.06771933134252</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
-        <v>86.79092599114529</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>90.71991738245453</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>149.0933573106639</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
-        <v>114.911971278001</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
-        <v>149.297326290764</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>88.48398334321018</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.35898130626782</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>245.5081696176536</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C32" t="n">
-        <v>228.0472197251806</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D32" t="n">
-        <v>217.457369574856</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E32" t="n">
-        <v>244.7046980264348</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F32" t="n">
-        <v>269.6503736958845</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G32" t="n">
-        <v>278.0770654693081</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H32" t="n">
-        <v>202.2491300699402</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I32" t="n">
-        <v>73.25021752457894</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>12.64344589532271</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S32" t="n">
-        <v>71.79439754041837</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T32" t="n">
-        <v>85.87017751830439</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U32" t="n">
-        <v>114.1199808620095</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V32" t="n">
-        <v>190.5265864243079</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W32" t="n">
-        <v>212.015296671586</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X32" t="n">
-        <v>232.5054286326421</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y32" t="n">
-        <v>249.0122666102266</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.30751160404037</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C33" t="n">
-        <v>35.48282694248877</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D33" t="n">
-        <v>10.21939351881178</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E33" t="n">
-        <v>20.41940840957398</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F33" t="n">
-        <v>7.84354034755691</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1178451173836663</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>34.45749905801085</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T33" t="n">
-        <v>62.93905664899464</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U33" t="n">
-        <v>88.71571003514785</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V33" t="n">
-        <v>95.5749151035983</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W33" t="n">
-        <v>114.4693111150926</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X33" t="n">
-        <v>68.54731315765051</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y33" t="n">
-        <v>68.45702373147739</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.60630813611033</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C34" t="n">
-        <v>30.02114905280087</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D34" t="n">
-        <v>11.38980097238539</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E34" t="n">
-        <v>9.208290600742203</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F34" t="n">
-        <v>8.195375977104277</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G34" t="n">
-        <v>30.76530731263179</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H34" t="n">
-        <v>25.00150046161261</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I34" t="n">
-        <v>18.22480288143132</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>40.06771933134252</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S34" t="n">
-        <v>86.79092599114529</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T34" t="n">
-        <v>90.71991738245453</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U34" t="n">
-        <v>149.0933573106639</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V34" t="n">
-        <v>114.911971278001</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W34" t="n">
-        <v>149.297326290764</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X34" t="n">
-        <v>88.48398334321018</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.35898130626782</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>245.5081696176536</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C35" t="n">
-        <v>228.0472197251806</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D35" t="n">
-        <v>217.457369574856</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E35" t="n">
-        <v>244.7046980264348</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F35" t="n">
-        <v>269.6503736958845</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G35" t="n">
-        <v>278.0770654693081</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H35" t="n">
-        <v>202.2491300699402</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I35" t="n">
-        <v>73.25021752457894</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>12.64344589532271</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S35" t="n">
-        <v>71.79439754041837</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T35" t="n">
-        <v>85.87017751830439</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U35" t="n">
-        <v>114.1199808620095</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
-        <v>190.5265864243079</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W35" t="n">
-        <v>212.015296671586</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X35" t="n">
-        <v>232.5054286326421</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y35" t="n">
-        <v>249.0122666102266</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.30751160404037</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C36" t="n">
-        <v>35.48282694248877</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D36" t="n">
-        <v>10.21939351881178</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E36" t="n">
-        <v>20.41940840957398</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F36" t="n">
-        <v>7.84354034755691</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1178451173836663</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>34.45749905801085</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T36" t="n">
-        <v>62.93905664899464</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U36" t="n">
-        <v>88.71571003514785</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V36" t="n">
-        <v>95.5749151035983</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W36" t="n">
-        <v>114.4693111150926</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X36" t="n">
-        <v>68.54731315765051</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y36" t="n">
-        <v>68.45702373147739</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.60630813611033</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C37" t="n">
-        <v>30.02114905280087</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D37" t="n">
-        <v>11.38980097238539</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E37" t="n">
-        <v>9.208290600742203</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
-        <v>8.195375977104277</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
-        <v>30.76530731263179</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>25.00150046161261</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
-        <v>18.22480288143132</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>40.06771933134252</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
-        <v>86.79092599114529</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T37" t="n">
-        <v>90.71991738245453</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U37" t="n">
-        <v>149.0933573106639</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
-        <v>114.911971278001</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
-        <v>149.297326290764</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>88.48398334321018</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.35898130626782</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>245.5081696176536</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C38" t="n">
-        <v>228.0472197251806</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D38" t="n">
-        <v>217.457369574856</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E38" t="n">
-        <v>244.7046980264348</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F38" t="n">
-        <v>269.6503736958845</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G38" t="n">
-        <v>278.0770654693081</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H38" t="n">
-        <v>202.2491300699402</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I38" t="n">
-        <v>73.25021752457894</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>12.64344589532271</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S38" t="n">
-        <v>71.79439754041837</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T38" t="n">
-        <v>85.87017751830439</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U38" t="n">
-        <v>114.1199808620095</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V38" t="n">
-        <v>190.5265864243079</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W38" t="n">
-        <v>212.015296671586</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X38" t="n">
-        <v>232.5054286326421</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y38" t="n">
-        <v>249.0122666102266</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.30751160404037</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C39" t="n">
-        <v>35.48282694248877</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D39" t="n">
-        <v>10.21939351881178</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E39" t="n">
-        <v>20.41940840957398</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F39" t="n">
-        <v>7.84354034755691</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1178451173836663</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>34.45749905801085</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T39" t="n">
-        <v>62.93905664899464</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U39" t="n">
-        <v>88.71571003514785</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V39" t="n">
-        <v>95.5749151035983</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W39" t="n">
-        <v>114.4693111150926</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X39" t="n">
-        <v>68.54731315765051</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y39" t="n">
-        <v>68.45702373147739</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.60630813611033</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C40" t="n">
-        <v>30.02114905280087</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D40" t="n">
-        <v>11.38980097238539</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E40" t="n">
-        <v>9.208290600742203</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F40" t="n">
-        <v>8.195375977104277</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G40" t="n">
-        <v>30.76530731263179</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H40" t="n">
-        <v>25.00150046161261</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I40" t="n">
-        <v>18.22480288143132</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.06771933134252</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S40" t="n">
-        <v>86.79092599114529</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T40" t="n">
-        <v>90.71991738245453</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U40" t="n">
-        <v>149.0933573106639</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V40" t="n">
-        <v>114.911971278001</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W40" t="n">
-        <v>149.297326290764</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X40" t="n">
-        <v>88.48398334321018</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.35898130626782</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>270.4983974269841</v>
+        <v>346.3283129702527</v>
       </c>
       <c r="C41" t="n">
-        <v>253.0374475345111</v>
+        <v>328.8673630777797</v>
       </c>
       <c r="D41" t="n">
-        <v>242.4475973841865</v>
+        <v>318.2775129274551</v>
       </c>
       <c r="E41" t="n">
-        <v>269.6949258357653</v>
+        <v>345.5248413790339</v>
       </c>
       <c r="F41" t="n">
-        <v>294.640601505215</v>
+        <v>370.4705170484836</v>
       </c>
       <c r="G41" t="n">
-        <v>303.0672932786386</v>
+        <v>378.8972088219072</v>
       </c>
       <c r="H41" t="n">
-        <v>227.2393578792707</v>
+        <v>303.0692734225393</v>
       </c>
       <c r="I41" t="n">
-        <v>98.24044533390945</v>
+        <v>174.0703608771781</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.63367370465322</v>
+        <v>113.4635892479218</v>
       </c>
       <c r="S41" t="n">
-        <v>96.78462534974888</v>
+        <v>172.6145408930175</v>
       </c>
       <c r="T41" t="n">
-        <v>110.8604053276349</v>
+        <v>186.6903208709035</v>
       </c>
       <c r="U41" t="n">
-        <v>139.11020867134</v>
+        <v>214.9401242146087</v>
       </c>
       <c r="V41" t="n">
-        <v>215.5168142336385</v>
+        <v>291.3467297769071</v>
       </c>
       <c r="W41" t="n">
-        <v>237.0055244809166</v>
+        <v>312.8354400241852</v>
       </c>
       <c r="X41" t="n">
-        <v>257.4956564419726</v>
+        <v>333.3255719852412</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.0024944195571</v>
+        <v>349.8324099628257</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>54.29773941337088</v>
+        <v>130.1276549566395</v>
       </c>
       <c r="C42" t="n">
-        <v>60.47305475181928</v>
+        <v>136.3029702950879</v>
       </c>
       <c r="D42" t="n">
-        <v>35.20962132814229</v>
+        <v>111.0395368714109</v>
       </c>
       <c r="E42" t="n">
-        <v>45.40963621890448</v>
+        <v>121.2395517621731</v>
       </c>
       <c r="F42" t="n">
-        <v>32.83376815688742</v>
+        <v>108.663683700156</v>
       </c>
       <c r="G42" t="n">
-        <v>25.10807292671417</v>
+        <v>100.9379884699828</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>75.82991554326861</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>52.99110415818723</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>63.75230545941528</v>
       </c>
       <c r="S42" t="n">
-        <v>59.44772686734136</v>
+        <v>135.27764241061</v>
       </c>
       <c r="T42" t="n">
-        <v>87.92928445832514</v>
+        <v>163.7592000015937</v>
       </c>
       <c r="U42" t="n">
-        <v>113.7059378444784</v>
+        <v>189.535853387747</v>
       </c>
       <c r="V42" t="n">
-        <v>120.5651429129288</v>
+        <v>196.3950584561974</v>
       </c>
       <c r="W42" t="n">
-        <v>139.4595389244232</v>
+        <v>215.2894544676918</v>
       </c>
       <c r="X42" t="n">
-        <v>93.53754096698101</v>
+        <v>169.3674565102496</v>
       </c>
       <c r="Y42" t="n">
-        <v>93.4472515408079</v>
+        <v>169.2771670840765</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.59653594544083</v>
+        <v>143.4264514887095</v>
       </c>
       <c r="C43" t="n">
-        <v>55.01137686213137</v>
+        <v>130.8412924054</v>
       </c>
       <c r="D43" t="n">
-        <v>36.38002878171589</v>
+        <v>112.2099443249845</v>
       </c>
       <c r="E43" t="n">
-        <v>34.19851841007271</v>
+        <v>110.0284339533413</v>
       </c>
       <c r="F43" t="n">
-        <v>33.18560378643478</v>
+        <v>109.0155193297034</v>
       </c>
       <c r="G43" t="n">
-        <v>55.7555351219623</v>
+        <v>131.5854506652309</v>
       </c>
       <c r="H43" t="n">
-        <v>49.99172827094311</v>
+        <v>125.8216438142117</v>
       </c>
       <c r="I43" t="n">
-        <v>43.21503069076182</v>
+        <v>119.0449462340304</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>56.95365142344492</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>49.75651455846653</v>
       </c>
       <c r="R43" t="n">
-        <v>65.05794714067302</v>
+        <v>140.8878626839416</v>
       </c>
       <c r="S43" t="n">
-        <v>111.7811538004758</v>
+        <v>187.6110693437444</v>
       </c>
       <c r="T43" t="n">
-        <v>115.710145191785</v>
+        <v>191.5400607350537</v>
       </c>
       <c r="U43" t="n">
-        <v>174.0835851199944</v>
+        <v>249.9135006632631</v>
       </c>
       <c r="V43" t="n">
-        <v>139.9021990873316</v>
+        <v>215.7321146306002</v>
       </c>
       <c r="W43" t="n">
-        <v>174.2875541000946</v>
+        <v>250.1174696433632</v>
       </c>
       <c r="X43" t="n">
-        <v>113.4742111525407</v>
+        <v>189.3041266958093</v>
       </c>
       <c r="Y43" t="n">
-        <v>106.3492091155983</v>
+        <v>182.179124658867</v>
       </c>
     </row>
     <row r="44">
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>346.3283129702527</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>328.8673630777797</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>318.2775129274551</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>345.5248413790339</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>370.4705170484836</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>378.8972088219072</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>303.0692734225393</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>174.0703608771781</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>113.4635892479218</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>172.6145408930175</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>186.6903208709035</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>214.9401242146087</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>291.3467297769071</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>312.8354400241852</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>333.3255719852412</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>349.8324099628257</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>130.1276549566395</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>136.3029702950879</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>111.0395368714109</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>121.2395517621731</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>108.663683700156</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>100.9379884699828</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>75.82991554326861</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>52.99110415818723</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>63.75230545941528</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>135.27764241061</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>163.7592000015937</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>189.535853387747</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>196.3950584561974</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>215.2894544676918</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>169.3674565102496</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>169.2771670840765</v>
       </c>
     </row>
     <row r="46">
@@ -26020,34 +26022,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4264514887095</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>130.8412924054</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>112.2099443249845</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0284339533413</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>109.0155193297034</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>131.5854506652309</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>125.8216438142117</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>119.0449462340304</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>56.95365142344492</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,34 +26064,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>49.75651455846653</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>140.8878626839416</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>187.6110693437444</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>191.5400607350537</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>249.9135006632631</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>215.7321146306002</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>250.1174696433632</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>189.3041266958093</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>182.179124658867</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>333070.211922976</v>
+        <v>441085.6070151472</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>447973.3066716184</v>
+        <v>441085.6070151472</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>447973.3066716184</v>
+        <v>464405.1845703756</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>447973.3066716184</v>
+        <v>464405.1845703756</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>447973.3066716184</v>
+        <v>464405.1845703756</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>521458.9995988095</v>
+        <v>441085.6070151472</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>521458.9995988095</v>
+        <v>480060.1882098726</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>521458.9995988095</v>
+        <v>480060.1882098726</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>521458.9995988095</v>
+        <v>480060.1882098726</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>480060.1882098726</v>
+        <v>346395.7353931035</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>279519.2543817606</v>
+        <v>346395.7353931035</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170387</v>
+        <v>819276.3387170385</v>
       </c>
       <c r="C2" t="n">
         <v>819276.3387170383</v>
@@ -26320,40 +26322,40 @@
         <v>819276.3387170385</v>
       </c>
       <c r="E2" t="n">
-        <v>286416.0877845131</v>
+        <v>430436.6145740753</v>
       </c>
       <c r="F2" t="n">
-        <v>439620.2141160358</v>
+        <v>430436.6145740752</v>
       </c>
       <c r="G2" t="n">
-        <v>439620.2141160358</v>
+        <v>461529.3846477129</v>
       </c>
       <c r="H2" t="n">
-        <v>439620.2141160358</v>
+        <v>461529.3846477129</v>
       </c>
       <c r="I2" t="n">
-        <v>439620.2141160357</v>
+        <v>461529.3846477127</v>
       </c>
       <c r="J2" t="n">
-        <v>430436.6145740752</v>
+        <v>430436.6145740749</v>
       </c>
       <c r="K2" t="n">
-        <v>537601.1380189578</v>
+        <v>430436.6145740749</v>
       </c>
       <c r="L2" t="n">
-        <v>537601.1380189578</v>
+        <v>482402.7228337085</v>
       </c>
       <c r="M2" t="n">
-        <v>537601.1380189578</v>
+        <v>482402.7228337082</v>
       </c>
       <c r="N2" t="n">
-        <v>537601.1380189578</v>
+        <v>482402.7228337082</v>
       </c>
       <c r="O2" t="n">
-        <v>482402.7228337084</v>
+        <v>304183.4524113503</v>
       </c>
       <c r="P2" t="n">
-        <v>215014.8110628928</v>
+        <v>304183.4524113503</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23162.22005967057</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="F3" t="n">
-        <v>51525.12403366765</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>10853.37384651717</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>19992.18224746441</v>
+        <v>60663.93243461489</v>
       </c>
       <c r="K3" t="n">
-        <v>89788.35538919717</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>29124.42295458228</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>159011.6439908248</v>
+        <v>241213.8188882921</v>
       </c>
       <c r="F4" t="n">
-        <v>246455.5151420466</v>
+        <v>241213.8188882921</v>
       </c>
       <c r="G4" t="n">
-        <v>246455.5151420466</v>
+        <v>258960.548334536</v>
       </c>
       <c r="H4" t="n">
-        <v>246455.5151420466</v>
+        <v>258960.548334536</v>
       </c>
       <c r="I4" t="n">
-        <v>246455.5151420466</v>
+        <v>258960.548334536</v>
       </c>
       <c r="J4" t="n">
-        <v>241213.818888292</v>
+        <v>241213.8188882921</v>
       </c>
       <c r="K4" t="n">
-        <v>302379.8005395856</v>
+        <v>241213.8188882921</v>
       </c>
       <c r="L4" t="n">
-        <v>302379.8005395856</v>
+        <v>270874.3625283026</v>
       </c>
       <c r="M4" t="n">
-        <v>302379.8005395856</v>
+        <v>270874.3625283026</v>
       </c>
       <c r="N4" t="n">
-        <v>302379.8005395856</v>
+        <v>270874.3625283026</v>
       </c>
       <c r="O4" t="n">
-        <v>270874.3625283026</v>
+        <v>169152.670739438</v>
       </c>
       <c r="P4" t="n">
-        <v>118258.146084591</v>
+        <v>169152.670739438</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2434.030847745557</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="F5" t="n">
-        <v>7848.612913228564</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="G5" t="n">
-        <v>7848.612913228564</v>
+        <v>8656.02588456418</v>
       </c>
       <c r="H5" t="n">
-        <v>7848.612913228564</v>
+        <v>8656.02588456418</v>
       </c>
       <c r="I5" t="n">
-        <v>7848.612913228564</v>
+        <v>8656.02588456418</v>
       </c>
       <c r="J5" t="n">
         <v>7515.485527185614</v>
       </c>
       <c r="K5" t="n">
-        <v>11536.42502322063</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="L5" t="n">
-        <v>11536.42502322063</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="M5" t="n">
-        <v>11536.42502322063</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="N5" t="n">
-        <v>11536.42502322063</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="O5" t="n">
-        <v>9435.521561518022</v>
+        <v>3060.576391710972</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3060.576391710972</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322498.007614929</v>
+        <v>322498.0076149288</v>
       </c>
       <c r="C6" t="n">
         <v>322498.0076149285</v>
@@ -26528,40 +26530,40 @@
         <v>322498.0076149288</v>
       </c>
       <c r="E6" t="n">
-        <v>101808.1928862722</v>
+        <v>110190.0038774656</v>
       </c>
       <c r="F6" t="n">
-        <v>133790.962027093</v>
+        <v>181707.3101585975</v>
       </c>
       <c r="G6" t="n">
-        <v>185316.0860607607</v>
+        <v>183059.4365820955</v>
       </c>
       <c r="H6" t="n">
-        <v>185316.0860607607</v>
+        <v>193912.8104286127</v>
       </c>
       <c r="I6" t="n">
-        <v>185316.0860607606</v>
+        <v>193912.8104286125</v>
       </c>
       <c r="J6" t="n">
-        <v>161715.1279111332</v>
+        <v>121043.3777239823</v>
       </c>
       <c r="K6" t="n">
-        <v>133896.5570669544</v>
+        <v>181707.3101585972</v>
       </c>
       <c r="L6" t="n">
-        <v>223684.9124561516</v>
+        <v>172968.4157893056</v>
       </c>
       <c r="M6" t="n">
-        <v>223684.9124561516</v>
+        <v>202092.8387438876</v>
       </c>
       <c r="N6" t="n">
-        <v>223684.9124561516</v>
+        <v>202092.8387438876</v>
       </c>
       <c r="O6" t="n">
-        <v>202092.8387438878</v>
+        <v>131970.2052802013</v>
       </c>
       <c r="P6" t="n">
-        <v>96756.66497830181</v>
+        <v>131970.2052802013</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G2" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H2" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I2" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J2" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M2" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N2" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>64.40640504208456</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.56671730814647</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.99022780933052</v>
+        <v>75.82991554326861</v>
       </c>
       <c r="K2" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>64.40640504208456</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13.56671730814647</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.99022780933052</v>
+        <v>75.82991554326861</v>
       </c>
       <c r="P2" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -28135,28 +28137,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28168,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -28214,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y12" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="13">
@@ -28245,31 +28247,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -28290,31 +28292,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.95277507458822</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.95277507458822</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28374,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28405,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -28451,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28484,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28530,28 +28532,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="18">
@@ -28640,25 +28642,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -28688,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="19">
@@ -28719,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -28767,28 +28769,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28879,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -28925,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="22">
@@ -28956,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -29004,28 +29006,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29085,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="24">
@@ -29114,25 +29116,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29162,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="25">
@@ -29193,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -29241,28 +29243,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29557,28 +29559,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y29" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="30">
@@ -29588,25 +29590,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -29636,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y30" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="31">
@@ -29667,31 +29669,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K31" t="n">
         <v>22.26949182588285</v>
@@ -29715,28 +29717,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.225672045827</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29794,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y32" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29827,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C33" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D33" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E33" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F33" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G33" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -29876,25 +29878,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T33" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U33" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V33" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W33" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X33" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y33" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="34">
@@ -29904,28 +29906,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -29952,28 +29954,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30031,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y35" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="36">
@@ -30062,22 +30064,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C36" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D36" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E36" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F36" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G36" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -30113,25 +30115,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T36" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U36" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V36" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W36" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X36" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y36" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="37">
@@ -30141,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -30189,28 +30191,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30268,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y38" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30301,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C39" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D39" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E39" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F39" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G39" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -30350,25 +30352,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T39" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U39" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V39" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W39" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X39" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y39" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="40">
@@ -30378,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -30426,28 +30428,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.225672045827</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="43">
@@ -30615,31 +30617,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="K43" t="n">
         <v>22.26949182588285</v>
@@ -30660,31 +30662,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="R43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="44">
@@ -30694,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30739,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="45">
@@ -30773,31 +30775,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30821,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="46">
@@ -30852,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30894,34 +30896,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1820153.718229424</v>
+        <v>1765989.131898802</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11739719.61562467</v>
+        <v>11739719.61562466</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5961757.10448502</v>
+        <v>5961757.104485021</v>
       </c>
     </row>
     <row r="11">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>279.7704915039191</v>
+        <v>279.7704915039189</v>
       </c>
       <c r="C17" t="n">
         <v>262.309541611446</v>
@@ -23740,19 +23740,19 @@
         <v>251.7196914611214</v>
       </c>
       <c r="E17" t="n">
-        <v>278.9670199127003</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F17" t="n">
-        <v>303.9126955821499</v>
+        <v>303.9126955821498</v>
       </c>
       <c r="G17" t="n">
-        <v>312.3393873555735</v>
+        <v>312.3393873555734</v>
       </c>
       <c r="H17" t="n">
-        <v>236.5114519562056</v>
+        <v>236.5114519562055</v>
       </c>
       <c r="I17" t="n">
-        <v>107.5125394108444</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>46.90576778158814</v>
+        <v>46.90576778158808</v>
       </c>
       <c r="S17" t="n">
-        <v>106.0567194266838</v>
+        <v>106.0567194266837</v>
       </c>
       <c r="T17" t="n">
         <v>120.1324994045698</v>
       </c>
       <c r="U17" t="n">
-        <v>148.382302748275</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V17" t="n">
-        <v>224.7889083105734</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W17" t="n">
-        <v>246.2776185578515</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X17" t="n">
-        <v>266.7677505189075</v>
+        <v>266.7677505189074</v>
       </c>
       <c r="Y17" t="n">
         <v>283.274588496492</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>63.5698334903058</v>
+        <v>63.56983349030574</v>
       </c>
       <c r="C18" t="n">
-        <v>69.7451488287542</v>
+        <v>69.74514882875414</v>
       </c>
       <c r="D18" t="n">
-        <v>44.48171540507721</v>
+        <v>44.48171540507715</v>
       </c>
       <c r="E18" t="n">
-        <v>54.6817302958394</v>
+        <v>54.68173029583934</v>
       </c>
       <c r="F18" t="n">
-        <v>42.10586223382234</v>
+        <v>42.10586223382228</v>
       </c>
       <c r="G18" t="n">
-        <v>34.38016700364909</v>
+        <v>34.38016700364903</v>
       </c>
       <c r="H18" t="n">
-        <v>9.27209407693492</v>
+        <v>9.272094076934863</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>68.71982094427628</v>
+        <v>68.71982094427622</v>
       </c>
       <c r="T18" t="n">
-        <v>97.20137853526006</v>
+        <v>97.20137853526001</v>
       </c>
       <c r="U18" t="n">
-        <v>122.9780319214133</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V18" t="n">
         <v>129.8372369898637</v>
       </c>
       <c r="W18" t="n">
-        <v>148.7316330013581</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X18" t="n">
         <v>102.8096350439159</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.86863002237575</v>
+        <v>76.8686300223757</v>
       </c>
       <c r="C19" t="n">
-        <v>64.28347093906629</v>
+        <v>64.28347093906623</v>
       </c>
       <c r="D19" t="n">
-        <v>45.65212285865081</v>
+        <v>45.65212285865076</v>
       </c>
       <c r="E19" t="n">
-        <v>43.47061248700763</v>
+        <v>43.47061248700757</v>
       </c>
       <c r="F19" t="n">
-        <v>42.4576978633697</v>
+        <v>42.45769786336965</v>
       </c>
       <c r="G19" t="n">
-        <v>65.02762919889722</v>
+        <v>65.02762919889716</v>
       </c>
       <c r="H19" t="n">
-        <v>59.26382234787803</v>
+        <v>59.26382234787798</v>
       </c>
       <c r="I19" t="n">
-        <v>52.48712476769674</v>
+        <v>52.48712476769668</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>74.33004121760794</v>
+        <v>74.33004121760789</v>
       </c>
       <c r="S19" t="n">
         <v>121.0532478774107</v>
       </c>
       <c r="T19" t="n">
-        <v>124.98223926872</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U19" t="n">
         <v>183.3556791969293</v>
       </c>
       <c r="V19" t="n">
-        <v>149.1742931642665</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W19" t="n">
-        <v>183.5596481770295</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X19" t="n">
         <v>122.7463052294756</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>279.7704915039191</v>
+        <v>279.7704915039189</v>
       </c>
       <c r="C20" t="n">
         <v>262.309541611446</v>
@@ -23977,19 +23977,19 @@
         <v>251.7196914611214</v>
       </c>
       <c r="E20" t="n">
-        <v>278.9670199127003</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F20" t="n">
-        <v>303.9126955821499</v>
+        <v>303.9126955821498</v>
       </c>
       <c r="G20" t="n">
-        <v>312.3393873555735</v>
+        <v>312.3393873555734</v>
       </c>
       <c r="H20" t="n">
-        <v>236.5114519562056</v>
+        <v>236.5114519562055</v>
       </c>
       <c r="I20" t="n">
-        <v>107.5125394108444</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>46.90576778158814</v>
+        <v>46.90576778158808</v>
       </c>
       <c r="S20" t="n">
-        <v>106.0567194266838</v>
+        <v>106.0567194266837</v>
       </c>
       <c r="T20" t="n">
         <v>120.1324994045698</v>
       </c>
       <c r="U20" t="n">
-        <v>148.382302748275</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V20" t="n">
-        <v>224.7889083105734</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W20" t="n">
-        <v>246.2776185578515</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X20" t="n">
-        <v>266.7677505189075</v>
+        <v>266.7677505189074</v>
       </c>
       <c r="Y20" t="n">
         <v>283.274588496492</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63.5698334903058</v>
+        <v>63.56983349030574</v>
       </c>
       <c r="C21" t="n">
-        <v>69.7451488287542</v>
+        <v>69.74514882875414</v>
       </c>
       <c r="D21" t="n">
-        <v>44.48171540507721</v>
+        <v>44.48171540507715</v>
       </c>
       <c r="E21" t="n">
-        <v>54.6817302958394</v>
+        <v>54.68173029583934</v>
       </c>
       <c r="F21" t="n">
-        <v>42.10586223382234</v>
+        <v>42.10586223382228</v>
       </c>
       <c r="G21" t="n">
-        <v>34.38016700364909</v>
+        <v>34.38016700364903</v>
       </c>
       <c r="H21" t="n">
-        <v>9.27209407693492</v>
+        <v>9.272094076934863</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,19 +24098,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>68.71982094427628</v>
+        <v>68.71982094427622</v>
       </c>
       <c r="T21" t="n">
-        <v>97.20137853526006</v>
+        <v>97.20137853526001</v>
       </c>
       <c r="U21" t="n">
-        <v>122.9780319214133</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V21" t="n">
         <v>129.8372369898637</v>
       </c>
       <c r="W21" t="n">
-        <v>148.7316330013581</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X21" t="n">
         <v>102.8096350439159</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.86863002237575</v>
+        <v>76.8686300223757</v>
       </c>
       <c r="C22" t="n">
-        <v>64.28347093906629</v>
+        <v>64.28347093906623</v>
       </c>
       <c r="D22" t="n">
-        <v>45.65212285865081</v>
+        <v>45.65212285865076</v>
       </c>
       <c r="E22" t="n">
-        <v>43.47061248700763</v>
+        <v>43.47061248700757</v>
       </c>
       <c r="F22" t="n">
-        <v>42.4576978633697</v>
+        <v>42.45769786336965</v>
       </c>
       <c r="G22" t="n">
-        <v>65.02762919889722</v>
+        <v>65.02762919889716</v>
       </c>
       <c r="H22" t="n">
-        <v>59.26382234787803</v>
+        <v>59.26382234787798</v>
       </c>
       <c r="I22" t="n">
-        <v>52.48712476769674</v>
+        <v>52.48712476769668</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>74.33004121760794</v>
+        <v>74.33004121760789</v>
       </c>
       <c r="S22" t="n">
         <v>121.0532478774107</v>
       </c>
       <c r="T22" t="n">
-        <v>124.98223926872</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U22" t="n">
         <v>183.3556791969293</v>
       </c>
       <c r="V22" t="n">
-        <v>149.1742931642665</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W22" t="n">
-        <v>183.5596481770295</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X22" t="n">
         <v>122.7463052294756</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>279.7704915039191</v>
+        <v>279.7704915039189</v>
       </c>
       <c r="C23" t="n">
         <v>262.309541611446</v>
@@ -24214,19 +24214,19 @@
         <v>251.7196914611214</v>
       </c>
       <c r="E23" t="n">
-        <v>278.9670199127003</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F23" t="n">
-        <v>303.9126955821499</v>
+        <v>303.9126955821498</v>
       </c>
       <c r="G23" t="n">
-        <v>312.3393873555735</v>
+        <v>312.3393873555734</v>
       </c>
       <c r="H23" t="n">
-        <v>236.5114519562056</v>
+        <v>236.5114519562055</v>
       </c>
       <c r="I23" t="n">
-        <v>107.5125394108444</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>46.90576778158814</v>
+        <v>46.90576778158808</v>
       </c>
       <c r="S23" t="n">
-        <v>106.0567194266838</v>
+        <v>106.0567194266837</v>
       </c>
       <c r="T23" t="n">
         <v>120.1324994045698</v>
       </c>
       <c r="U23" t="n">
-        <v>148.382302748275</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V23" t="n">
-        <v>224.7889083105734</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W23" t="n">
-        <v>246.2776185578515</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X23" t="n">
-        <v>266.7677505189075</v>
+        <v>266.7677505189074</v>
       </c>
       <c r="Y23" t="n">
         <v>283.274588496492</v>
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63.5698334903058</v>
+        <v>63.56983349030574</v>
       </c>
       <c r="C24" t="n">
-        <v>69.7451488287542</v>
+        <v>69.74514882875414</v>
       </c>
       <c r="D24" t="n">
-        <v>44.48171540507721</v>
+        <v>44.48171540507715</v>
       </c>
       <c r="E24" t="n">
-        <v>54.6817302958394</v>
+        <v>54.68173029583934</v>
       </c>
       <c r="F24" t="n">
-        <v>42.10586223382234</v>
+        <v>42.10586223382228</v>
       </c>
       <c r="G24" t="n">
-        <v>34.38016700364909</v>
+        <v>34.38016700364903</v>
       </c>
       <c r="H24" t="n">
-        <v>9.27209407693492</v>
+        <v>9.272094076934863</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,19 +24335,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>68.71982094427628</v>
+        <v>68.71982094427622</v>
       </c>
       <c r="T24" t="n">
-        <v>97.20137853526006</v>
+        <v>97.20137853526001</v>
       </c>
       <c r="U24" t="n">
-        <v>122.9780319214133</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V24" t="n">
         <v>129.8372369898637</v>
       </c>
       <c r="W24" t="n">
-        <v>148.7316330013581</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X24" t="n">
         <v>102.8096350439159</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.86863002237575</v>
+        <v>76.8686300223757</v>
       </c>
       <c r="C25" t="n">
-        <v>64.28347093906629</v>
+        <v>64.28347093906623</v>
       </c>
       <c r="D25" t="n">
-        <v>45.65212285865081</v>
+        <v>45.65212285865076</v>
       </c>
       <c r="E25" t="n">
-        <v>43.47061248700763</v>
+        <v>43.47061248700757</v>
       </c>
       <c r="F25" t="n">
-        <v>42.4576978633697</v>
+        <v>42.45769786336965</v>
       </c>
       <c r="G25" t="n">
-        <v>65.02762919889722</v>
+        <v>65.02762919889716</v>
       </c>
       <c r="H25" t="n">
-        <v>59.26382234787803</v>
+        <v>59.26382234787798</v>
       </c>
       <c r="I25" t="n">
-        <v>52.48712476769674</v>
+        <v>52.48712476769668</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>74.33004121760794</v>
+        <v>74.33004121760789</v>
       </c>
       <c r="S25" t="n">
         <v>121.0532478774107</v>
       </c>
       <c r="T25" t="n">
-        <v>124.98223926872</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U25" t="n">
         <v>183.3556791969293</v>
       </c>
       <c r="V25" t="n">
-        <v>149.1742931642665</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W25" t="n">
-        <v>183.5596481770295</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X25" t="n">
         <v>122.7463052294756</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>346.3283129702527</v>
+        <v>346.3283129702526</v>
       </c>
       <c r="C41" t="n">
-        <v>328.8673630777797</v>
+        <v>328.8673630777796</v>
       </c>
       <c r="D41" t="n">
-        <v>318.2775129274551</v>
+        <v>318.277512927455</v>
       </c>
       <c r="E41" t="n">
-        <v>345.5248413790339</v>
+        <v>345.5248413790338</v>
       </c>
       <c r="F41" t="n">
-        <v>370.4705170484836</v>
+        <v>370.4705170484835</v>
       </c>
       <c r="G41" t="n">
-        <v>378.8972088219072</v>
+        <v>378.8972088219071</v>
       </c>
       <c r="H41" t="n">
-        <v>303.0692734225393</v>
+        <v>303.0692734225392</v>
       </c>
       <c r="I41" t="n">
-        <v>174.0703608771781</v>
+        <v>174.070360877178</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>113.4635892479218</v>
+        <v>113.4635892479217</v>
       </c>
       <c r="S41" t="n">
-        <v>172.6145408930175</v>
+        <v>172.6145408930174</v>
       </c>
       <c r="T41" t="n">
-        <v>186.6903208709035</v>
+        <v>186.6903208709034</v>
       </c>
       <c r="U41" t="n">
-        <v>214.9401242146087</v>
+        <v>214.9401242146085</v>
       </c>
       <c r="V41" t="n">
-        <v>291.3467297769071</v>
+        <v>291.346729776907</v>
       </c>
       <c r="W41" t="n">
-        <v>312.8354400241852</v>
+        <v>312.8354400241851</v>
       </c>
       <c r="X41" t="n">
-        <v>333.3255719852412</v>
+        <v>333.3255719852411</v>
       </c>
       <c r="Y41" t="n">
-        <v>349.8324099628257</v>
+        <v>349.8324099628256</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>130.1276549566395</v>
+        <v>130.1276549566394</v>
       </c>
       <c r="C42" t="n">
-        <v>136.3029702950879</v>
+        <v>136.3029702950878</v>
       </c>
       <c r="D42" t="n">
-        <v>111.0395368714109</v>
+        <v>111.0395368714108</v>
       </c>
       <c r="E42" t="n">
-        <v>121.2395517621731</v>
+        <v>121.239551762173</v>
       </c>
       <c r="F42" t="n">
-        <v>108.663683700156</v>
+        <v>108.6636837001559</v>
       </c>
       <c r="G42" t="n">
-        <v>100.9379884699828</v>
+        <v>100.9379884699827</v>
       </c>
       <c r="H42" t="n">
-        <v>75.82991554326861</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="I42" t="n">
-        <v>52.99110415818723</v>
+        <v>52.99110415818714</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>63.75230545941528</v>
+        <v>63.7523054594152</v>
       </c>
       <c r="S42" t="n">
-        <v>135.27764241061</v>
+        <v>135.2776424106099</v>
       </c>
       <c r="T42" t="n">
         <v>163.7592000015937</v>
       </c>
       <c r="U42" t="n">
-        <v>189.535853387747</v>
+        <v>189.5358533877469</v>
       </c>
       <c r="V42" t="n">
-        <v>196.3950584561974</v>
+        <v>196.3950584561973</v>
       </c>
       <c r="W42" t="n">
-        <v>215.2894544676918</v>
+        <v>215.2894544676917</v>
       </c>
       <c r="X42" t="n">
         <v>169.3674565102496</v>
       </c>
       <c r="Y42" t="n">
-        <v>169.2771670840765</v>
+        <v>169.2771670840764</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>143.4264514887095</v>
+        <v>143.4264514887093</v>
       </c>
       <c r="C43" t="n">
-        <v>130.8412924054</v>
+        <v>130.8412924053999</v>
       </c>
       <c r="D43" t="n">
-        <v>112.2099443249845</v>
+        <v>112.2099443249844</v>
       </c>
       <c r="E43" t="n">
-        <v>110.0284339533413</v>
+        <v>110.0284339533412</v>
       </c>
       <c r="F43" t="n">
-        <v>109.0155193297034</v>
+        <v>109.0155193297033</v>
       </c>
       <c r="G43" t="n">
-        <v>131.5854506652309</v>
+        <v>131.5854506652308</v>
       </c>
       <c r="H43" t="n">
-        <v>125.8216438142117</v>
+        <v>125.8216438142116</v>
       </c>
       <c r="I43" t="n">
-        <v>119.0449462340304</v>
+        <v>119.0449462340303</v>
       </c>
       <c r="J43" t="n">
-        <v>56.95365142344492</v>
+        <v>56.95365142344484</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.75651455846653</v>
+        <v>49.75651455846645</v>
       </c>
       <c r="R43" t="n">
-        <v>140.8878626839416</v>
+        <v>140.8878626839415</v>
       </c>
       <c r="S43" t="n">
-        <v>187.6110693437444</v>
+        <v>187.6110693437443</v>
       </c>
       <c r="T43" t="n">
-        <v>191.5400607350537</v>
+        <v>191.5400607350535</v>
       </c>
       <c r="U43" t="n">
-        <v>249.9135006632631</v>
+        <v>249.9135006632629</v>
       </c>
       <c r="V43" t="n">
-        <v>215.7321146306002</v>
+        <v>215.7321146306001</v>
       </c>
       <c r="W43" t="n">
-        <v>250.1174696433632</v>
+        <v>250.1174696433631</v>
       </c>
       <c r="X43" t="n">
-        <v>189.3041266958093</v>
+        <v>189.3041266958092</v>
       </c>
       <c r="Y43" t="n">
-        <v>182.179124658867</v>
+        <v>182.1791246588668</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>346.3283129702527</v>
+        <v>346.3283129702526</v>
       </c>
       <c r="C44" t="n">
-        <v>328.8673630777797</v>
+        <v>328.8673630777796</v>
       </c>
       <c r="D44" t="n">
-        <v>318.2775129274551</v>
+        <v>318.277512927455</v>
       </c>
       <c r="E44" t="n">
-        <v>345.5248413790339</v>
+        <v>345.5248413790338</v>
       </c>
       <c r="F44" t="n">
-        <v>370.4705170484836</v>
+        <v>370.4705170484835</v>
       </c>
       <c r="G44" t="n">
-        <v>378.8972088219072</v>
+        <v>378.8972088219071</v>
       </c>
       <c r="H44" t="n">
-        <v>303.0692734225393</v>
+        <v>303.0692734225392</v>
       </c>
       <c r="I44" t="n">
-        <v>174.0703608771781</v>
+        <v>174.070360877178</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>113.4635892479218</v>
+        <v>113.4635892479217</v>
       </c>
       <c r="S44" t="n">
-        <v>172.6145408930175</v>
+        <v>172.6145408930174</v>
       </c>
       <c r="T44" t="n">
-        <v>186.6903208709035</v>
+        <v>186.6903208709034</v>
       </c>
       <c r="U44" t="n">
-        <v>214.9401242146087</v>
+        <v>214.9401242146085</v>
       </c>
       <c r="V44" t="n">
-        <v>291.3467297769071</v>
+        <v>291.346729776907</v>
       </c>
       <c r="W44" t="n">
-        <v>312.8354400241852</v>
+        <v>312.8354400241851</v>
       </c>
       <c r="X44" t="n">
-        <v>333.3255719852412</v>
+        <v>333.3255719852411</v>
       </c>
       <c r="Y44" t="n">
-        <v>349.8324099628257</v>
+        <v>349.8324099628256</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>130.1276549566395</v>
+        <v>130.1276549566394</v>
       </c>
       <c r="C45" t="n">
-        <v>136.3029702950879</v>
+        <v>136.3029702950878</v>
       </c>
       <c r="D45" t="n">
-        <v>111.0395368714109</v>
+        <v>111.0395368714108</v>
       </c>
       <c r="E45" t="n">
-        <v>121.2395517621731</v>
+        <v>121.239551762173</v>
       </c>
       <c r="F45" t="n">
-        <v>108.663683700156</v>
+        <v>108.6636837001559</v>
       </c>
       <c r="G45" t="n">
-        <v>100.9379884699828</v>
+        <v>100.9379884699827</v>
       </c>
       <c r="H45" t="n">
-        <v>75.82991554326861</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="I45" t="n">
-        <v>52.99110415818723</v>
+        <v>52.99110415818714</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>63.75230545941528</v>
+        <v>63.7523054594152</v>
       </c>
       <c r="S45" t="n">
-        <v>135.27764241061</v>
+        <v>135.2776424106099</v>
       </c>
       <c r="T45" t="n">
         <v>163.7592000015937</v>
       </c>
       <c r="U45" t="n">
-        <v>189.535853387747</v>
+        <v>189.5358533877469</v>
       </c>
       <c r="V45" t="n">
-        <v>196.3950584561974</v>
+        <v>196.3950584561973</v>
       </c>
       <c r="W45" t="n">
-        <v>215.2894544676918</v>
+        <v>215.2894544676917</v>
       </c>
       <c r="X45" t="n">
         <v>169.3674565102496</v>
       </c>
       <c r="Y45" t="n">
-        <v>169.2771670840765</v>
+        <v>169.2771670840764</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>143.4264514887095</v>
+        <v>143.4264514887093</v>
       </c>
       <c r="C46" t="n">
-        <v>130.8412924054</v>
+        <v>130.8412924053999</v>
       </c>
       <c r="D46" t="n">
-        <v>112.2099443249845</v>
+        <v>112.2099443249844</v>
       </c>
       <c r="E46" t="n">
-        <v>110.0284339533413</v>
+        <v>110.0284339533412</v>
       </c>
       <c r="F46" t="n">
-        <v>109.0155193297034</v>
+        <v>109.0155193297033</v>
       </c>
       <c r="G46" t="n">
-        <v>131.5854506652309</v>
+        <v>131.5854506652308</v>
       </c>
       <c r="H46" t="n">
-        <v>125.8216438142117</v>
+        <v>125.8216438142116</v>
       </c>
       <c r="I46" t="n">
-        <v>119.0449462340304</v>
+        <v>119.0449462340303</v>
       </c>
       <c r="J46" t="n">
-        <v>56.95365142344492</v>
+        <v>56.95365142344484</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.75651455846653</v>
+        <v>49.75651455846645</v>
       </c>
       <c r="R46" t="n">
-        <v>140.8878626839416</v>
+        <v>140.8878626839415</v>
       </c>
       <c r="S46" t="n">
-        <v>187.6110693437444</v>
+        <v>187.6110693437443</v>
       </c>
       <c r="T46" t="n">
-        <v>191.5400607350537</v>
+        <v>191.5400607350535</v>
       </c>
       <c r="U46" t="n">
-        <v>249.9135006632631</v>
+        <v>249.9135006632629</v>
       </c>
       <c r="V46" t="n">
-        <v>215.7321146306002</v>
+        <v>215.7321146306001</v>
       </c>
       <c r="W46" t="n">
-        <v>250.1174696433632</v>
+        <v>250.1174696433631</v>
       </c>
       <c r="X46" t="n">
-        <v>189.3041266958093</v>
+        <v>189.3041266958092</v>
       </c>
       <c r="Y46" t="n">
-        <v>182.179124658867</v>
+        <v>182.1791246588668</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>464405.1845703756</v>
+        <v>464405.1845703759</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>464405.1845703756</v>
+        <v>464405.1845703759</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>464405.1845703756</v>
+        <v>464405.1845703759</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>346395.7353931035</v>
+        <v>346395.7353931037</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>346395.7353931035</v>
+        <v>346395.7353931037</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170382</v>
       </c>
       <c r="D2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="E2" t="n">
-        <v>430436.6145740753</v>
+        <v>430436.6145740747</v>
       </c>
       <c r="F2" t="n">
+        <v>430436.6145740747</v>
+      </c>
+      <c r="G2" t="n">
+        <v>461529.3846477133</v>
+      </c>
+      <c r="H2" t="n">
+        <v>461529.3846477133</v>
+      </c>
+      <c r="I2" t="n">
+        <v>461529.384647713</v>
+      </c>
+      <c r="J2" t="n">
         <v>430436.6145740752</v>
       </c>
-      <c r="G2" t="n">
-        <v>461529.3846477129</v>
-      </c>
-      <c r="H2" t="n">
-        <v>461529.3846477129</v>
-      </c>
-      <c r="I2" t="n">
-        <v>461529.3846477127</v>
-      </c>
-      <c r="J2" t="n">
-        <v>430436.6145740749</v>
-      </c>
       <c r="K2" t="n">
-        <v>430436.6145740749</v>
+        <v>430436.6145740748</v>
       </c>
       <c r="L2" t="n">
-        <v>482402.7228337085</v>
+        <v>482402.7228337082</v>
       </c>
       <c r="M2" t="n">
-        <v>482402.7228337082</v>
+        <v>482402.7228337081</v>
       </c>
       <c r="N2" t="n">
         <v>482402.7228337082</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10853.37384651717</v>
+        <v>10853.37384651722</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60663.93243461489</v>
+        <v>60663.93243461482</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>29124.42295458228</v>
+        <v>29124.42295458233</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,13 +26432,13 @@
         <v>241213.8188882921</v>
       </c>
       <c r="G4" t="n">
-        <v>258960.548334536</v>
+        <v>258960.5483345361</v>
       </c>
       <c r="H4" t="n">
-        <v>258960.548334536</v>
+        <v>258960.5483345361</v>
       </c>
       <c r="I4" t="n">
-        <v>258960.548334536</v>
+        <v>258960.5483345361</v>
       </c>
       <c r="J4" t="n">
         <v>241213.8188882921</v>
@@ -26456,10 +26456,10 @@
         <v>270874.3625283026</v>
       </c>
       <c r="O4" t="n">
-        <v>169152.670739438</v>
+        <v>169152.6707394382</v>
       </c>
       <c r="P4" t="n">
-        <v>169152.670739438</v>
+        <v>169152.6707394382</v>
       </c>
     </row>
     <row r="5">
@@ -26484,13 +26484,13 @@
         <v>7515.485527185614</v>
       </c>
       <c r="G5" t="n">
-        <v>8656.02588456418</v>
+        <v>8656.025884564184</v>
       </c>
       <c r="H5" t="n">
-        <v>8656.02588456418</v>
+        <v>8656.025884564184</v>
       </c>
       <c r="I5" t="n">
-        <v>8656.02588456418</v>
+        <v>8656.025884564184</v>
       </c>
       <c r="J5" t="n">
         <v>7515.485527185614</v>
@@ -26508,10 +26508,10 @@
         <v>9435.521561518022</v>
       </c>
       <c r="O5" t="n">
-        <v>3060.576391710972</v>
+        <v>3060.576391710979</v>
       </c>
       <c r="P5" t="n">
-        <v>3060.576391710972</v>
+        <v>3060.576391710979</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322498.0076149288</v>
+        <v>322453.8718362475</v>
       </c>
       <c r="C6" t="n">
-        <v>322498.0076149285</v>
+        <v>322453.8718362473</v>
       </c>
       <c r="D6" t="n">
-        <v>322498.0076149288</v>
+        <v>322453.8718362475</v>
       </c>
       <c r="E6" t="n">
-        <v>110190.0038774656</v>
+        <v>100424.8749952098</v>
       </c>
       <c r="F6" t="n">
-        <v>181707.3101585975</v>
+        <v>171942.1812763418</v>
       </c>
       <c r="G6" t="n">
-        <v>183059.4365820955</v>
+        <v>174071.6269516815</v>
       </c>
       <c r="H6" t="n">
-        <v>193912.8104286127</v>
+        <v>184925.0007981987</v>
       </c>
       <c r="I6" t="n">
-        <v>193912.8104286125</v>
+        <v>184925.0007981985</v>
       </c>
       <c r="J6" t="n">
-        <v>121043.3777239823</v>
+        <v>111278.2488417275</v>
       </c>
       <c r="K6" t="n">
-        <v>181707.3101585972</v>
+        <v>171942.1812763419</v>
       </c>
       <c r="L6" t="n">
-        <v>172968.4157893056</v>
+        <v>164502.4396135409</v>
       </c>
       <c r="M6" t="n">
-        <v>202092.8387438876</v>
+        <v>193626.8625681231</v>
       </c>
       <c r="N6" t="n">
-        <v>202092.8387438876</v>
+        <v>193626.8625681232</v>
       </c>
       <c r="O6" t="n">
-        <v>131970.2052802013</v>
+        <v>119048.7473438778</v>
       </c>
       <c r="P6" t="n">
-        <v>131970.2052802013</v>
+        <v>119048.7473438778</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>89.39663285141508</v>
       </c>
       <c r="G2" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H2" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I2" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J2" t="n">
         <v>89.39663285141508</v>
@@ -26724,10 +26724,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="P2" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="3">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.56671730814647</v>
+        <v>13.56671730814652</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>75.82991554326861</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322791</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>13.56671730814647</v>
+        <v>13.56671730814652</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>75.82991554326861</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="18">
@@ -28642,25 +28642,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -28693,25 +28693,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="19">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -28769,28 +28769,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="21">
@@ -28879,25 +28879,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -28930,25 +28930,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="22">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -29006,28 +29006,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29085,28 +29085,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="24">
@@ -29116,25 +29116,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29167,25 +29167,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="25">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -29243,28 +29243,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="26">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="43">
@@ -30617,31 +30617,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K43" t="n">
         <v>22.26949182588285</v>
@@ -30662,31 +30662,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="R43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="46">
@@ -30854,31 +30854,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -30899,31 +30899,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="R46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
   </sheetData>
